--- a/Semana 13/BOM - SUMOBOT - G7+6.xlsx
+++ b/Semana 13/BOM - SUMOBOT - G7+6.xlsx
@@ -11,12 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Part Name</t>
-  </si>
-  <si>
-    <t>Part Number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Nombre de componente</t>
   </si>
   <si>
     <t>Qty</t>
@@ -25,10 +22,10 @@
     <t>Unit Cost</t>
   </si>
   <si>
-    <t>Cost/part</t>
-  </si>
-  <si>
-    <t>Kit Arduino DIY Robot</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Kit Arduino DIY Robot:</t>
   </si>
   <si>
     <t>Arduino UNO R3</t>
@@ -70,7 +67,7 @@
     <t>Placa acrílica chasis</t>
   </si>
   <si>
-    <t>Sensor infrarrojo TCRT5000 5 Canales</t>
+    <t>Sensor infrarojo TCRT5000</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -83,10 +80,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$]#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -95,35 +98,114 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -356,151 +438,179 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>36990.0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>36990.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>36990.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>36990.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C13" s="3">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
+      <c r="C16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="4">
+        <v>2300.0</v>
+      </c>
+      <c r="E18" s="8">
+        <f>C18*D18</f>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3990.0</v>
-      </c>
-      <c r="F18" s="4">
-        <f>D18*E18</f>
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="4">
-        <f>SUM(F4:F18)</f>
-        <v>40980</v>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12">
+        <f>SUM(E4:E18)</f>
+        <v>41590</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:D19"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>